--- a/src/Melonama Experiments.xlsb.xlsx
+++ b/src/Melonama Experiments.xlsb.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreamer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A9525-DC49-488E-AFB4-3A96449AF293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE3F8B8-9D20-49F5-B511-A7DAACC0F1E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="-120" windowWidth="27555" windowHeight="16440" xr2:uid="{A6140902-CA3E-4AE5-BAA4-A6D0536C8E55}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="2" xr2:uid="{A6140902-CA3E-4AE5-BAA4-A6D0536C8E55}"/>
   </bookViews>
   <sheets>
     <sheet name="training results" sheetId="1" r:id="rId1"/>
     <sheet name="TripleStratified" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="TPU" sheetId="8" r:id="rId3"/>
     <sheet name="ensemble" sheetId="7" r:id="rId4"/>
     <sheet name="data directories" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="168">
   <si>
     <t>external data</t>
   </si>
@@ -485,6 +485,75 @@
   </si>
   <si>
     <t>efficientnet-b1</t>
+  </si>
+  <si>
+    <t>Pseudo Label</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>External Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV </t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>2018_2019</t>
+  </si>
+  <si>
+    <t>v7/8</t>
+  </si>
+  <si>
+    <t>v8/8</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW MODELS TRAINING </t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>TPU (SK)</t>
+  </si>
+  <si>
+    <t>GPU (aws)</t>
+  </si>
+  <si>
+    <t>384_cc</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>TPU (SKumar)</t>
+  </si>
+  <si>
+    <t>TPU (AA)</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -810,7 +879,7 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -856,7 +925,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="6"/>
     <xf numFmtId="11" fontId="16" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="15" fillId="4" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -871,6 +939,17 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="15" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
@@ -970,7 +1049,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CABE7B8-2EB7-4C08-AE43-6134C9462B2F}" name="Table1" displayName="Table1" ref="A1:W73" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:W73" xr:uid="{DC27DC19-305B-4A68-9AE4-E70DC9471F21}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W73">
-    <sortCondition ref="B1:B73"/>
+    <sortCondition descending="1" ref="T1:T73"/>
   </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{C7A8E766-94E4-435F-90C3-1D7C61384AE1}" name="date" dataDxfId="6"/>
@@ -1327,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7E382D-4B0C-459A-9A9D-1FD2379ABBA3}">
   <dimension ref="A1:W1048570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P67" sqref="P67"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S16" sqref="A16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,33 +1505,33 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44003</v>
       </c>
       <c r="B2" s="16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="39">
-        <v>4.0000000000000002E-4</v>
+        <v>55</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1464,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
@@ -1476,42 +1555,48 @@
         <v>8</v>
       </c>
       <c r="Q2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
         <v>8</v>
       </c>
       <c r="S2">
-        <v>0.90800000000000003</v>
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="33">
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44003</v>
+        <v>44006</v>
       </c>
       <c r="B3" s="16">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1E-3</v>
+        <v>59</v>
+      </c>
+      <c r="I3" s="34">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1523,7 +1608,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
         <v>63</v>
@@ -1535,27 +1620,33 @@
         <v>8</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R3" t="s">
         <v>8</v>
       </c>
       <c r="S3">
-        <v>0.89700000000000002</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44003</v>
+        <v>44006</v>
       </c>
       <c r="B4" s="16">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1564,16 +1655,16 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I4" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>64</v>
@@ -1582,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
         <v>63</v>
@@ -1594,27 +1685,33 @@
         <v>8</v>
       </c>
       <c r="Q4">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="R4" t="s">
         <v>8</v>
       </c>
       <c r="S4">
-        <v>0.90300000000000002</v>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44003</v>
+        <v>44006</v>
       </c>
       <c r="B5" s="16">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1623,16 +1720,16 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>64</v>
@@ -1641,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
         <v>63</v>
@@ -1653,27 +1750,33 @@
         <v>8</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R5" t="s">
         <v>8</v>
       </c>
       <c r="S5">
-        <v>0.88800000000000001</v>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44003</v>
+        <v>44007</v>
       </c>
       <c r="B6" s="16">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1682,25 +1785,25 @@
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
         <v>63</v>
@@ -1712,27 +1815,33 @@
         <v>8</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R6" t="s">
         <v>8</v>
       </c>
       <c r="S6">
-        <v>0.876</v>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="T6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6">
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44003</v>
+        <v>44007</v>
       </c>
       <c r="B7" s="16">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1741,25 +1850,25 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I7" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
         <v>63</v>
@@ -1771,27 +1880,33 @@
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R7" t="s">
         <v>8</v>
       </c>
       <c r="S7">
-        <v>0.89600000000000002</v>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="T7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7">
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44003</v>
+        <v>44010</v>
       </c>
       <c r="B8" s="16">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1800,13 +1915,13 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="I8" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1818,517 +1933,589 @@
         <v>16</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="O8" t="s">
         <v>63</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R8" t="s">
         <v>8</v>
       </c>
       <c r="S8">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44003</v>
+        <v>44017</v>
       </c>
       <c r="B9" s="16">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>128</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="37">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="V9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B10" s="16">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="25">
+        <v>128</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="25">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <v>0.92</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="V10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B11" s="16">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J9">
+      <c r="J11" s="25">
+        <v>2</v>
+      </c>
+      <c r="K11" s="25">
+        <v>128</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="T11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="V11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B12" s="16">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J12" s="25">
+        <v>3</v>
+      </c>
+      <c r="K12" s="25">
+        <v>128</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>0.92</v>
+      </c>
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B13" s="24">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J13" s="25">
+        <v>4</v>
+      </c>
+      <c r="K13" s="25">
+        <v>128</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13">
+        <v>0.92</v>
+      </c>
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B14" s="16">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J14" s="25">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K14" s="25">
         <v>128</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B10" s="16">
-        <v>8</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="L14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>18</v>
+      </c>
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="V14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B15" s="16">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J10">
+      <c r="J15" s="25">
+        <v>1</v>
+      </c>
+      <c r="K15" s="25">
+        <v>128</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="T15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="V15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B16" s="16">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J16" s="25">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K16" s="25">
         <v>128</v>
       </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>0.90900000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B11" s="16">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>128</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11">
-        <v>0.92130000000000001</v>
-      </c>
-      <c r="T11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="33">
-        <v>0.88600000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B12" s="16">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>64</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12">
-        <v>15</v>
-      </c>
-      <c r="R12" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B13" s="16">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>128</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-      <c r="R13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B14" s="16">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14">
-        <v>0.89200000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B15" s="16">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>128</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-      <c r="R15" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B16" s="16">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>128</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
+      <c r="L16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>5</v>
       </c>
       <c r="R16" t="s">
         <v>8</v>
       </c>
       <c r="S16">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="T16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="V16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B17" s="16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -2337,16 +2524,16 @@
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
       </c>
       <c r="I17" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>128</v>
@@ -2355,7 +2542,7 @@
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
         <v>63</v>
@@ -2367,21 +2554,27 @@
         <v>8</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s">
         <v>8</v>
       </c>
       <c r="S17">
-        <v>0.88600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44003</v>
       </c>
       <c r="B18" s="16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -2389,11 +2582,11 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>45</v>
+      <c r="E18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -2401,11 +2594,11 @@
       <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="3">
-        <v>5.0000000000000001E-4</v>
+      <c r="I18" s="38">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>128</v>
@@ -2414,7 +2607,7 @@
         <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s">
         <v>63</v>
@@ -2426,54 +2619,54 @@
         <v>8</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R18" t="s">
         <v>8</v>
       </c>
       <c r="S18">
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44003</v>
       </c>
       <c r="B19" s="16">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
         <v>63</v>
@@ -2485,24 +2678,24 @@
         <v>8</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R19" t="s">
         <v>8</v>
       </c>
       <c r="S19">
-        <v>0.87129999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44003</v>
       </c>
       <c r="B20" s="16">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -2514,25 +2707,25 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
         <v>63</v>
@@ -2544,27 +2737,27 @@
         <v>8</v>
       </c>
       <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B21" s="16">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
-      </c>
-      <c r="R20" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44004</v>
-      </c>
-      <c r="B21" s="16">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -2573,25 +2766,25 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21">
-        <v>5.0000000000000001E-4</v>
+        <v>46</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1E-4</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
         <v>63</v>
@@ -2603,30 +2796,27 @@
         <v>8</v>
       </c>
       <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B22" s="16">
         <v>4</v>
       </c>
-      <c r="R21" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>44004</v>
-      </c>
-      <c r="B22" s="16">
-        <v>20</v>
-      </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -2635,16 +2825,16 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>128</v>
@@ -2653,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
         <v>63</v>
@@ -2665,27 +2855,27 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22" t="s">
         <v>8</v>
       </c>
       <c r="S22">
-        <v>0.89300000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B23" s="16">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2694,16 +2884,16 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>128</v>
@@ -2712,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
         <v>63</v>
@@ -2724,27 +2914,27 @@
         <v>8</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R23" t="s">
         <v>8</v>
       </c>
       <c r="S23">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B24" s="16">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -2753,16 +2943,16 @@
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I24" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>128</v>
@@ -2770,7 +2960,7 @@
       <c r="L24" t="s">
         <v>16</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="32" t="s">
         <v>47</v>
       </c>
       <c r="N24" t="s">
@@ -2783,27 +2973,27 @@
         <v>8</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R24" t="s">
         <v>8</v>
       </c>
       <c r="S24">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B25" s="16">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -2812,16 +3002,16 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="3">
+        <v>46</v>
+      </c>
+      <c r="I25" s="34">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>128</v>
@@ -2842,27 +3032,27 @@
         <v>8</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R25" t="s">
         <v>8</v>
       </c>
       <c r="S25">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B26" s="16">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -2871,13 +3061,13 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="35">
-        <v>1.5E-5</v>
+        <v>46</v>
+      </c>
+      <c r="I26" s="48">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2901,27 +3091,27 @@
         <v>8</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R26" t="s">
         <v>8</v>
       </c>
       <c r="S26">
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B27" s="16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2930,25 +3120,25 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="39">
+        <v>46</v>
+      </c>
+      <c r="I27" s="3">
         <v>1E-3</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N27" t="s">
         <v>63</v>
@@ -2960,27 +3150,27 @@
         <v>8</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R27" t="s">
         <v>8</v>
       </c>
       <c r="S27">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B28" s="16">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2989,16 +3179,16 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I28" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>128</v>
@@ -3019,27 +3209,27 @@
         <v>8</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R28" t="s">
         <v>8</v>
       </c>
       <c r="S28">
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B29" s="16">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -3048,16 +3238,16 @@
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I29" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29">
         <v>128</v>
@@ -3078,27 +3268,27 @@
         <v>8</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R29" t="s">
         <v>8</v>
       </c>
       <c r="S29">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B30" s="16">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -3107,13 +3297,13 @@
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I30" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3124,8 +3314,8 @@
       <c r="L30" t="s">
         <v>16</v>
       </c>
-      <c r="M30" t="s">
-        <v>47</v>
+      <c r="M30" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="N30" t="s">
         <v>63</v>
@@ -3137,27 +3327,27 @@
         <v>8</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R30" t="s">
         <v>8</v>
       </c>
       <c r="S30">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B31" s="16">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -3166,16 +3356,16 @@
         <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I31" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>128</v>
@@ -3184,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N31" t="s">
         <v>63</v>
@@ -3196,27 +3386,27 @@
         <v>8</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
       </c>
       <c r="S31">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B32" s="16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -3227,14 +3417,14 @@
       <c r="G32" t="s">
         <v>41</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="33" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <v>128</v>
@@ -3243,7 +3433,7 @@
         <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N32" t="s">
         <v>63</v>
@@ -3255,45 +3445,45 @@
         <v>8</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R32" t="s">
         <v>8</v>
       </c>
       <c r="S32">
-        <v>0.91700000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B33" s="16">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I33" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>128</v>
@@ -3302,7 +3492,7 @@
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N33" t="s">
         <v>63</v>
@@ -3314,33 +3504,27 @@
         <v>8</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="s">
         <v>8</v>
       </c>
       <c r="S33">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="T33" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33">
-        <v>0.91800000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44006</v>
+        <v>44003</v>
       </c>
       <c r="B34" s="16">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>64</v>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -3349,19 +3533,19 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="34">
+        <v>48</v>
+      </c>
+      <c r="I34" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3379,33 +3563,27 @@
         <v>8</v>
       </c>
       <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34">
+        <v>0.87129999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B35" s="16">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
         <v>9</v>
-      </c>
-      <c r="R34" t="s">
-        <v>8</v>
-      </c>
-      <c r="S34">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="T34" t="s">
-        <v>13</v>
-      </c>
-      <c r="U34" s="18">
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>44006</v>
-      </c>
-      <c r="B35" s="16">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>64</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -3414,19 +3592,19 @@
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I35" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3444,33 +3622,27 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R35" t="s">
         <v>8</v>
       </c>
       <c r="S35">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="T35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U35" s="18">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B36" s="16">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -3479,19 +3651,19 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="3">
+        <v>48</v>
+      </c>
+      <c r="I36">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3509,33 +3681,30 @@
         <v>8</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R36" t="s">
         <v>8</v>
       </c>
       <c r="S36">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="T36" t="s">
-        <v>13</v>
-      </c>
-      <c r="U36" s="18">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44007</v>
+        <v>44004</v>
       </c>
       <c r="B37" s="16">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -3544,19 +3713,19 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I37" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3574,33 +3743,27 @@
         <v>8</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R37" t="s">
         <v>8</v>
       </c>
       <c r="S37">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="T37" t="s">
-        <v>13</v>
-      </c>
-      <c r="U37">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44007</v>
+        <v>44004</v>
       </c>
       <c r="B38" s="16">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -3609,19 +3772,19 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I38" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3639,33 +3802,27 @@
         <v>8</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R38" t="s">
         <v>8</v>
       </c>
       <c r="S38">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="T38" t="s">
-        <v>13</v>
-      </c>
-      <c r="U38">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44010</v>
+        <v>44004</v>
       </c>
       <c r="B39" s="16">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>68</v>
+      <c r="D39" t="s">
+        <v>57</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -3676,14 +3833,14 @@
       <c r="G39" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" t="s">
         <v>48</v>
       </c>
       <c r="I39" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39">
         <v>128</v>
@@ -3691,46 +3848,40 @@
       <c r="L39" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" s="32" t="s">
-        <v>70</v>
+      <c r="M39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" t="s">
+        <v>63</v>
       </c>
       <c r="O39" t="s">
         <v>63</v>
       </c>
       <c r="P39" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R39" t="s">
         <v>8</v>
       </c>
       <c r="S39">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="T39" t="s">
-        <v>13</v>
-      </c>
-      <c r="U39">
-        <v>0.91700000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44010</v>
+        <v>44004</v>
       </c>
       <c r="B40" s="16">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -3748,7 +3899,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40">
         <v>128</v>
@@ -3757,39 +3908,39 @@
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N40" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O40" t="s">
         <v>63</v>
       </c>
       <c r="P40" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R40" t="s">
         <v>8</v>
       </c>
       <c r="S40">
-        <v>0.90300000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44010</v>
+        <v>44004</v>
       </c>
       <c r="B41" s="16">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -3803,11 +3954,11 @@
       <c r="H41" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="3">
-        <v>5.0000000000000001E-4</v>
+      <c r="I41" s="47">
+        <v>1.5E-5</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>128</v>
@@ -3816,39 +3967,39 @@
         <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N41" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O41" t="s">
         <v>63</v>
       </c>
       <c r="P41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R41" t="s">
         <v>8</v>
       </c>
       <c r="S41">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44010</v>
+        <v>44004</v>
       </c>
       <c r="B42" s="16">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -3862,11 +4013,11 @@
       <c r="H42" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="3">
-        <v>5.0000000000000001E-4</v>
+      <c r="I42" s="38">
+        <v>1E-3</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42">
         <v>128</v>
@@ -3875,39 +4026,39 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N42" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O42" t="s">
         <v>63</v>
       </c>
       <c r="P42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="R42" t="s">
         <v>8</v>
       </c>
       <c r="S42">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44010</v>
+        <v>44004</v>
       </c>
       <c r="B43" s="16">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -3916,13 +4067,13 @@
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I43" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -3934,446 +4085,446 @@
         <v>16</v>
       </c>
       <c r="M43" t="s">
+        <v>47</v>
+      </c>
+      <c r="N43" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B44" s="16">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>128</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B45" s="16">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>128</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" t="s">
+        <v>47</v>
+      </c>
+      <c r="N45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+      <c r="R45" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B46" s="16">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>128</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B47" s="16">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>128</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B48" s="16">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>128</v>
+      </c>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" t="s">
         <v>69</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N48" t="s">
         <v>70</v>
       </c>
-      <c r="O43" t="s">
-        <v>63</v>
-      </c>
-      <c r="P43" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q43">
-        <v>11</v>
-      </c>
-      <c r="R43" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <v>44015</v>
-      </c>
-      <c r="B44" s="24">
-        <v>42</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="25" t="s">
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48">
+        <v>13</v>
+      </c>
+      <c r="R48" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B49" s="16">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="26" t="s">
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="27">
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J44" s="25">
-        <v>0</v>
-      </c>
-      <c r="K44" s="25">
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
         <v>128</v>
       </c>
-      <c r="L44" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="25" t="s">
+      <c r="L49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" t="s">
         <v>69</v>
       </c>
-      <c r="N44" s="25" t="s">
+      <c r="N49" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P44" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="25">
-        <v>24</v>
-      </c>
-      <c r="R44" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="25">
-        <v>0.91559999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <v>44015</v>
-      </c>
-      <c r="B45" s="24">
-        <v>43</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B50" s="16">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I45" s="27">
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J45" s="25">
-        <v>0</v>
-      </c>
-      <c r="K45" s="25">
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
         <v>128</v>
       </c>
-      <c r="L45" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="25" t="s">
+      <c r="L50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" t="s">
         <v>69</v>
       </c>
-      <c r="N45" s="25" t="s">
+      <c r="N50" t="s">
         <v>70</v>
       </c>
-      <c r="O45" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P45" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="25">
-        <v>9</v>
-      </c>
-      <c r="R45" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S45" s="25">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
-        <v>44015</v>
-      </c>
-      <c r="B46" s="16">
-        <v>44</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="27">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J46" s="25">
-        <v>1</v>
-      </c>
-      <c r="K46" s="25">
-        <v>128</v>
-      </c>
-      <c r="L46" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N46" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O46" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="25">
-        <v>20</v>
-      </c>
-      <c r="R46" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S46">
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
-        <v>44015</v>
-      </c>
-      <c r="B47" s="16">
-        <v>45</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47" s="27">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J47" s="25">
-        <v>2</v>
-      </c>
-      <c r="K47" s="25">
-        <v>128</v>
-      </c>
-      <c r="L47" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="25">
-        <v>10</v>
-      </c>
-      <c r="R47" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S47">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
-        <v>44015</v>
-      </c>
-      <c r="B48" s="16">
-        <v>46</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" s="27">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J48" s="25">
-        <v>3</v>
-      </c>
-      <c r="K48" s="25">
-        <v>128</v>
-      </c>
-      <c r="L48" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O48" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P48" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="25">
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50">
         <v>14</v>
       </c>
-      <c r="R48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S48">
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
-        <v>44015</v>
-      </c>
-      <c r="B49" s="16">
-        <v>47</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="27">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J49" s="25">
-        <v>4</v>
-      </c>
-      <c r="K49" s="25">
-        <v>128</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="25">
-        <v>7</v>
-      </c>
-      <c r="R49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S49">
-        <v>0.89070000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>44015</v>
-      </c>
-      <c r="B50" s="16">
-        <v>48</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="27">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J50" s="25">
-        <v>4</v>
-      </c>
-      <c r="K50" s="25">
-        <v>128</v>
-      </c>
-      <c r="L50" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P50" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q50" s="25">
-        <v>16</v>
-      </c>
-      <c r="R50" s="25" t="s">
-        <v>13</v>
+      <c r="R50" t="s">
+        <v>8</v>
       </c>
       <c r="S50">
-        <v>0.91069999999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44015</v>
+        <v>44010</v>
       </c>
       <c r="B51" s="16">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -4384,73 +4535,73 @@
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" s="27">
+      <c r="F51" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J51" s="25">
-        <v>0</v>
-      </c>
-      <c r="K51" s="25">
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
         <v>128</v>
       </c>
-      <c r="L51" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="25" t="s">
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" t="s">
         <v>69</v>
       </c>
-      <c r="N51" s="25" t="s">
+      <c r="N51" t="s">
         <v>70</v>
       </c>
-      <c r="O51" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q51" s="25">
-        <v>7</v>
-      </c>
-      <c r="R51" s="25" t="s">
-        <v>13</v>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q51">
+        <v>11</v>
+      </c>
+      <c r="R51" t="s">
+        <v>8</v>
       </c>
       <c r="S51">
-        <v>0.84899999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="16">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="33" t="s">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>44015</v>
+      </c>
+      <c r="B52" s="24">
+        <v>42</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="33" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="I52" s="27">
         <v>5.0000000000000001E-4</v>
@@ -4477,45 +4628,45 @@
         <v>8</v>
       </c>
       <c r="Q52" s="25">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R52" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S52">
-        <v>0.91900000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="16">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="25">
+        <v>0.91559999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>44015</v>
+      </c>
+      <c r="B53" s="24">
+        <v>43</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I53" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J53" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="25">
         <v>128</v>
@@ -4541,40 +4692,40 @@
       <c r="R53" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S53">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>82</v>
+      <c r="S53" s="25">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>44015</v>
       </c>
       <c r="B54" s="16">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I54" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J54" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" s="25">
         <v>128</v>
@@ -4595,45 +4746,45 @@
         <v>8</v>
       </c>
       <c r="Q54" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R54" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S54">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="24">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>44015</v>
+      </c>
+      <c r="B55" s="16">
+        <v>45</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I55" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J55" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" s="25">
         <v>128</v>
@@ -4654,45 +4805,45 @@
         <v>8</v>
       </c>
       <c r="Q55" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R55" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S55">
-        <v>0.8952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="24">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>44015</v>
+      </c>
+      <c r="B56" s="16">
+        <v>46</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I56" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J56" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K56" s="25">
         <v>128</v>
@@ -4713,45 +4864,45 @@
         <v>8</v>
       </c>
       <c r="Q56" s="25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R56" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S56">
-        <v>0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>44017</v>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>44015</v>
       </c>
       <c r="B57" s="16">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I57" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J57" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K57" s="25">
         <v>128</v>
@@ -4772,45 +4923,45 @@
         <v>8</v>
       </c>
       <c r="Q57" s="25">
-        <v>8</v>
-      </c>
-      <c r="R57" t="s">
+        <v>7</v>
+      </c>
+      <c r="R57" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S57">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.89070000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B58" s="16">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I58" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J58" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K58" s="25">
         <v>128</v>
@@ -4831,24 +4982,24 @@
         <v>8</v>
       </c>
       <c r="Q58" s="25">
-        <v>5</v>
-      </c>
-      <c r="R58" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S58">
-        <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.91069999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B59" s="16">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
         <v>68</v>
@@ -4857,10 +5008,10 @@
         <v>13</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="H59" s="25" t="s">
         <v>46</v>
@@ -4869,7 +5020,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J59" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" s="25">
         <v>128</v>
@@ -4890,26 +5041,26 @@
         <v>8</v>
       </c>
       <c r="Q59" s="25">
-        <v>16</v>
-      </c>
-      <c r="R59" t="s">
+        <v>7</v>
+      </c>
+      <c r="R59" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S59">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>44017</v>
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B60" s="16">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E60" t="s">
@@ -4919,16 +5070,16 @@
         <v>85</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="I60" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J60" s="25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K60" s="25">
         <v>128</v>
@@ -4949,24 +5100,24 @@
         <v>8</v>
       </c>
       <c r="Q60" s="25">
-        <v>5</v>
-      </c>
-      <c r="R60" t="s">
+        <v>7</v>
+      </c>
+      <c r="R60" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S60">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>44017</v>
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B61" s="16">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>68</v>
@@ -4978,16 +5129,16 @@
         <v>85</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I61" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J61" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K61" s="25">
         <v>128</v>
@@ -5010,25 +5161,25 @@
       <c r="Q61" s="25">
         <v>9</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S61">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>44017</v>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B62" s="16">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -5037,16 +5188,16 @@
         <v>85</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I62" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J62" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" s="25">
         <v>128</v>
@@ -5067,36 +5218,27 @@
         <v>8</v>
       </c>
       <c r="Q62" s="25">
-        <v>5</v>
-      </c>
-      <c r="R62" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S62">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="T62" t="s">
-        <v>13</v>
-      </c>
-      <c r="U62" s="38">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="V62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B63" s="16">
-        <v>61</v>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="24">
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -5105,16 +5247,16 @@
         <v>85</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I63" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J63" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K63" s="25">
         <v>128</v>
@@ -5135,36 +5277,27 @@
         <v>8</v>
       </c>
       <c r="Q63" s="25">
-        <v>7</v>
-      </c>
-      <c r="R63" t="s">
+        <v>12</v>
+      </c>
+      <c r="R63" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S63">
-        <v>0.92</v>
-      </c>
-      <c r="T63" t="s">
-        <v>13</v>
-      </c>
-      <c r="U63">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="V63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>44017</v>
-      </c>
-      <c r="B64" s="16">
-        <v>62</v>
+        <v>0.8952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="24">
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -5173,16 +5306,16 @@
         <v>85</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I64" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J64" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64" s="25">
         <v>128</v>
@@ -5203,36 +5336,27 @@
         <v>8</v>
       </c>
       <c r="Q64" s="25">
-        <v>5</v>
-      </c>
-      <c r="R64" t="s">
+        <v>9</v>
+      </c>
+      <c r="R64" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S64">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="T64" t="s">
-        <v>13</v>
-      </c>
-      <c r="U64">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="V64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44017</v>
       </c>
       <c r="B65" s="16">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -5241,16 +5365,16 @@
         <v>85</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="I65" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J65" s="25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65" s="25">
         <v>128</v>
@@ -5271,36 +5395,27 @@
         <v>8</v>
       </c>
       <c r="Q65" s="25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R65" t="s">
         <v>13</v>
       </c>
       <c r="S65">
-        <v>0.92</v>
-      </c>
-      <c r="T65" t="s">
-        <v>13</v>
-      </c>
-      <c r="U65" t="s">
-        <v>102</v>
-      </c>
-      <c r="V65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44017</v>
       </c>
-      <c r="B66" s="24">
-        <v>64</v>
+      <c r="B66" s="16">
+        <v>56</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -5309,16 +5424,16 @@
         <v>85</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="I66" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J66" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K66" s="25">
         <v>128</v>
@@ -5345,30 +5460,21 @@
         <v>13</v>
       </c>
       <c r="S66">
-        <v>0.92</v>
-      </c>
-      <c r="T66" t="s">
-        <v>13</v>
-      </c>
-      <c r="U66" t="s">
-        <v>102</v>
-      </c>
-      <c r="V66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>44022</v>
+        <v>44017</v>
       </c>
       <c r="B67" s="16">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
@@ -5377,16 +5483,16 @@
         <v>85</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="I67" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J67" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67" s="25">
         <v>128</v>
@@ -5407,36 +5513,27 @@
         <v>8</v>
       </c>
       <c r="Q67" s="25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R67" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S67">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="T67" t="s">
-        <v>13</v>
-      </c>
-      <c r="U67">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="V67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>44022</v>
+        <v>44017</v>
       </c>
       <c r="B68" s="16">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
@@ -5445,16 +5542,16 @@
         <v>85</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="I68" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J68" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K68" s="25">
         <v>128</v>
@@ -5475,36 +5572,27 @@
         <v>8</v>
       </c>
       <c r="Q68" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R68" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S68">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="T68" t="s">
-        <v>13</v>
-      </c>
-      <c r="U68">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="V68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>44022</v>
+        <v>44017</v>
       </c>
       <c r="B69" s="16">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
@@ -5513,16 +5601,16 @@
         <v>85</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I69" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J69" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K69" s="25">
         <v>128</v>
@@ -5543,25 +5631,16 @@
         <v>8</v>
       </c>
       <c r="Q69" s="25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R69" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S69">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="T69" t="s">
-        <v>13</v>
-      </c>
-      <c r="U69">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="V69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44022</v>
       </c>
@@ -5620,7 +5699,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44022</v>
       </c>
@@ -5679,7 +5758,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44022</v>
       </c>
@@ -5738,7 +5817,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44022</v>
       </c>
@@ -6350,10 +6429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC43369-C76E-48C1-A194-61164944EA33}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6371,317 +6450,333 @@
     <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="R1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="S1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="T1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="U1" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="V1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="W1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="X1" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+    <row r="2" spans="1:24" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
         <v>44023</v>
       </c>
       <c r="B2" s="19">
         <v>200</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="42">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="39">
         <v>0</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="39">
         <v>128</v>
       </c>
-      <c r="L2" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="40">
+      <c r="O2" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="39">
         <v>11</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="40">
+      <c r="S2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="39">
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
         <v>44023</v>
       </c>
       <c r="B3" s="19">
         <v>201</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="42">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="39">
         <v>1</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="39">
         <v>128</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="40" t="s">
+      <c r="L3" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="40">
+      <c r="O3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="39">
         <v>14</v>
       </c>
-      <c r="R3" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="40">
+      <c r="S3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="39">
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>44023</v>
       </c>
       <c r="B4" s="19">
         <v>202</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="42">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="39">
         <v>2</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="39">
         <v>128</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="40" t="s">
+      <c r="L4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="40">
+      <c r="O4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="39">
         <v>20</v>
       </c>
-      <c r="R4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="40">
+      <c r="S4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="39">
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>44023</v>
       </c>
       <c r="B5" s="19">
         <v>203</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="42">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>3</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>128</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="40" t="s">
+      <c r="L5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="40">
+      <c r="O5" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="39">
         <v>7</v>
       </c>
-      <c r="R5" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="40">
+      <c r="S5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="39">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44023</v>
       </c>
@@ -6691,7 +6786,7 @@
       <c r="C6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -6727,21 +6822,205 @@
       <c r="O6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="P6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="7">
         <v>19</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="7">
+      <c r="S6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="7">
         <v>0.90700000000000003</v>
       </c>
     </row>
+    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44045</v>
+      </c>
+      <c r="B7" s="19">
+        <v>205</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="7">
+        <v>19</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="S1:T1">
+  <conditionalFormatting sqref="T1:U1">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T6">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T6">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:T2">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:T3">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6753,54 +7032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S6">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="S4:T4">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6812,7 +7044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
+  <conditionalFormatting sqref="T4">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6824,7 +7056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
+  <conditionalFormatting sqref="T4">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6836,7 +7068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:S3">
+  <conditionalFormatting sqref="S5:T5">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6848,7 +7080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
+  <conditionalFormatting sqref="T5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6860,7 +7092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
+  <conditionalFormatting sqref="T5">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6872,7 +7104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:S4">
+  <conditionalFormatting sqref="S6:T6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6884,7 +7116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
+  <conditionalFormatting sqref="T6">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6896,7 +7128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
+  <conditionalFormatting sqref="T6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6908,7 +7140,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:S5">
+  <conditionalFormatting sqref="T1:T6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6920,7 +7164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6932,19 +7176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:S6">
+  <conditionalFormatting sqref="S7:T7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6956,7 +7188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6968,7 +7200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6980,7 +7212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S6">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6998,15 +7230,215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6F8BE1-857D-4047-8676-BEB6ACDED864}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="50">
+        <v>512</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="50">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="50">
+        <v>384</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="50">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G4" s="50">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="50">
+        <v>384</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="51">
+        <v>512</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="51">
+        <v>384</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="51">
+        <v>2018</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="51">
+        <v>256</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="51">
+        <v>256</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="51">
+        <v>2018</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="51">
+        <v>512</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="51">
+        <v>512</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="51">
+        <v>2018</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="51">
+        <v>2018</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
